--- a/pred_ohlcv/54_21/2020-01-19 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1210592.45974344</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1210821.8023223</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1221926.91601323</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1209160.31181323</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1220026.43901323</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1221464.43901323</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1225006.43901323</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1290753.65241323</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>632502.7157209794</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>752651.4855209794</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>760012.4855209794</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>703747.2881891592</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>703755.2881891592</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>703763.2881891592</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>704974.2881891592</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1956393.747796089</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2125633.088305439</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2125633.088305439</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2113815.295805439</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2272577.341405439</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2437831.640005439</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2703530.920509689</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2397520.713640709</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2353583.072040709</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2298680.474640709</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2285379.380645919</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2139029.254145918</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2071431.594813298</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2062911.385313298</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1984120.180313298</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2037541.348122998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1994362.383322998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1981898.732222999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1982947.122208209</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1978947.122208209</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1216974.518998299</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1265836.2125983</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1264236.2125983</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1265124.3822983</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1265842.54511237</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1264461.54511237</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>746309.7557813091</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>745170.9563813091</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>726692.847581309</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>726585.165781309</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>671171.4668813091</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>670218.2111813091</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>684357.5590813091</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>684357.5590813091</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>684481.0912813091</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>685437.5590813091</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>703271.3117813091</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>702757.4514813091</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>754017.0846813091</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>782655.201281309</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>782655.201281309</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>766610.123081309</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>751610.123081309</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>770597.5564813091</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>790712.9854813091</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>790712.9854813091</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1225568.298127509</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1153633.221827509</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1184594.567866499</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1156494.039666499</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1305509.686972099</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>907215.0232582688</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>866818.5079582689</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>786106.3679582688</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-212988.5141417312</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-178757.8314417312</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-211633.2870417312</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-8639.975541731237</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>13228.67715826876</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-24801.70364173124</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-32685.60444173124</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>165162.9378835688</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>124343.8396835687</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>116521.0652835688</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>116621.0652835688</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>216644.9122892388</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>216644.9122892388</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>265439.5414892388</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>302095.2637892388</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>302095.2637892388</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>301968.4304892388</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>266056.0326892388</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>277741.2516892388</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>347679.3329892388</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>347679.3329892388</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>339550.9249892388</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>333483.3576892389</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>462080.1299892389</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>3807129.490122999</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4068450.591314879</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4207772.311808399</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>5086655.496008399</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4869510.928795369</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4516204.067695369</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4706502.674795369</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4538821.025095369</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4394760.846795369</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>3969797.835465889</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4006071.094365889</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>4163312.654965889</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>4231409.655165889</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3943238.64713538</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3845308.68533538</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3784441.401935379</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3561644.21543538</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3646257.37733538</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3760547.49052367</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>3775954.66822367</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>3755984.76352367</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>3755984.76352367</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>3637504.31382367</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>3530287.95482367</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1210592.45974344</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1210821.8023223</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1221926.91601323</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1209160.31181323</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1220026.43901323</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1221464.43901323</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1225006.43901323</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1956393.747796089</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2125633.088305439</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2125633.088305439</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2113815.295805439</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2272577.341405439</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2437831.640005439</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2703530.920509689</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2397520.713640709</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2353583.072040709</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2298680.474640709</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2285379.380645919</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2139029.254145918</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2071431.594813298</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2062911.385313298</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1984120.180313298</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2037541.348122998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1994362.383322998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1981898.732222999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1982947.122208209</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1978947.122208209</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1216974.518998299</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1265836.2125983</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1264236.2125983</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1265124.3822983</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1265842.54511237</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1264461.54511237</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>746309.7557813091</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>745170.9563813091</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>726692.847581309</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>726585.165781309</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>671171.4668813091</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>670218.2111813091</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>670483.6366813091</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>671557.5590813091</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>684357.5590813091</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>684357.5590813091</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>684481.0912813091</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>685437.5590813091</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>703271.3117813091</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>702757.4514813091</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>754017.0846813091</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>782655.201281309</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>782655.201281309</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>766610.123081309</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>751610.123081309</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>716923.140481309</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>716923.140481309</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>716074.819481309</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>716074.819481309</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>715008.5360813091</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>714475.7292813091</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>714633.4082813091</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>716148.1921813091</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>713410.8772813091</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>713510.8772813091</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>713555.8582813091</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>770597.5564813091</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>790712.9854813091</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>790712.9854813091</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1225568.298127509</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1153633.221827509</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1184594.567866499</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1156494.039666499</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1305509.686972099</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>907215.0232582688</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>866818.5079582689</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>786106.3679582688</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-212988.5141417312</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-178757.8314417312</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-211633.2870417312</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-8639.975541731237</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>13228.67715826876</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-24801.70364173124</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-32685.60444173124</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>165162.9378835688</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>124343.8396835687</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>116521.0652835688</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>116621.0652835688</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>216644.9122892388</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>216644.9122892388</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>265439.5414892388</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>302095.2637892388</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>302095.2637892388</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>301968.4304892388</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>266056.0326892388</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>277741.2516892388</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>347679.3329892388</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>347679.3329892388</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>339550.9249892388</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>333483.3576892389</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>462080.1299892389</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4610337.873928129</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>3605640.843779189</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>3807129.490122999</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4068450.591314879</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4207772.311808399</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>5086655.496008399</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4869510.928795369</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4516204.067695369</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4706502.674795369</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4538821.025095369</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4394760.846795369</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>3969797.835465889</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4006071.094365889</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>4163312.654965889</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>4429964.966765889</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>4186903.870165889</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>4231409.655165889</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>4151634.04346589</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>4229818.92356589</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>4242273.33586589</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3943238.64713538</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3845308.68533538</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3784441.401935379</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3567596.43173538</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3561644.21543538</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3646257.37733538</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3778514.16122367</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3760547.49052367</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>3775954.66822367</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>3755984.76352367</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>3755984.76352367</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
